--- a/outputs-HGR-r202-archive/g__CAG-349_train.xlsx
+++ b/outputs-HGR-r202-archive/g__CAG-349_train.xlsx
@@ -502,7 +502,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -687,17 +687,17 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS849_11.fasta</t>
+          <t>label_UMGS849_15.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9859645078382065</v>
       </c>
       <c r="C9" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.01403549216179345</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9859645078382065</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -708,17 +708,17 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS849_18.fasta</t>
+          <t>label_UMGS849_16.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9934287946701592</v>
       </c>
       <c r="C10" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.006571205329840807</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9934287946701592</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -729,38 +729,38 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS849_2.fasta</t>
+          <t>label_UMGS849_25.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.1357633208434683</v>
       </c>
       <c r="C11" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.8642366791565317</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.8642366791565317</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>s__CAG-349 sp001940895</t>
+          <t>s__CAG-349 sp003539515</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS849_24.fasta</t>
+          <t>label_UMGS849_3.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9895692486752972</v>
       </c>
       <c r="C12" t="n">
-        <v>2.220446049250264e-14</v>
+        <v>0.01043075132470284</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999999999999778</v>
+        <v>0.9895692486752972</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -771,17 +771,17 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS849_15.fasta</t>
+          <t>label_UMGS849_31.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9859645078382065</v>
+        <v>0.6185248122384697</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01403549216179345</v>
+        <v>0.3814751877615303</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9859645078382065</v>
+        <v>0.6185248122384697</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -792,17 +792,17 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS849_16.fasta</t>
+          <t>label_UMGS849_4.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9934287946701592</v>
+        <v>0.9963374233388108</v>
       </c>
       <c r="C14" t="n">
-        <v>0.006571205329840807</v>
+        <v>0.003662576661189236</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9934287946701592</v>
+        <v>0.9963374233388108</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -813,38 +813,38 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS849_25.fasta</t>
+          <t>label_UMGS849_7.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1357633208434683</v>
+        <v>0.9967677411262368</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8642366791565317</v>
+        <v>0.003232258873763242</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8642366791565317</v>
+        <v>0.9967677411262368</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>s__CAG-349 sp003539515</t>
+          <t>s__CAG-349 sp001940895</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS849_3.fasta</t>
+          <t>label_UMGS849_0.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9895692486752972</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01043075132470284</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9895692486752972</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -855,17 +855,17 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS849_31.fasta</t>
+          <t>label_UMGS849_10.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6185248122384697</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3814751877615303</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6185248122384697</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -876,17 +876,17 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS849_4.fasta</t>
+          <t>label_UMGS849_22.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9963374233388108</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C18" t="n">
-        <v>0.003662576661189236</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9963374233388108</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -897,17 +897,17 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS849_7.fasta</t>
+          <t>label_UMGS849_26.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9967677411262368</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="C19" t="n">
-        <v>0.003232258873763242</v>
+        <v>2.220446049250264e-14</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9967677411262368</v>
+        <v>0.9999999999999778</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS849_0.fasta</t>
+          <t>label_UMGS849_27.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -939,7 +939,7 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS849_10.fasta</t>
+          <t>label_UMGS849_30.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -960,7 +960,7 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS849_22.fasta</t>
+          <t>label_UMGS849_6.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -981,7 +981,7 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS849_26.fasta</t>
+          <t>label_UMGS849_8.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1002,7 +1002,7 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS849_27.fasta</t>
+          <t>label_UMGS849_13.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1023,7 +1023,7 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS849_30.fasta</t>
+          <t>label_UMGS849_17.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1044,7 +1044,7 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS849_6.fasta</t>
+          <t>label_UMGS849_19.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1065,7 +1065,7 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS849_8.fasta</t>
+          <t>label_UMGS849_29.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1086,7 +1086,7 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS849_13.fasta</t>
+          <t>label_UMGS849_5.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1107,7 +1107,7 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS849_17.fasta</t>
+          <t>label_UMGS849_9.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1128,7 +1128,7 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS849_19.fasta</t>
+          <t>label_UMGS849_1.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1149,7 +1149,7 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS849_29.fasta</t>
+          <t>label_UMGS849_12.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1170,7 +1170,7 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS849_5.fasta</t>
+          <t>label_UMGS849_14.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1191,7 +1191,7 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS849_9.fasta</t>
+          <t>label_UMGS849_20.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1212,7 +1212,7 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS849_1.fasta</t>
+          <t>label_UMGS849_21.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1233,7 +1233,7 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS849_12.fasta</t>
+          <t>label_UMGS849_23.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1254,7 +1254,7 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS849_14.fasta</t>
+          <t>label_UMGS849_28.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1267,90 +1267,6 @@
         <v>0.9999999999999778</v>
       </c>
       <c r="E36" t="inlineStr">
-        <is>
-          <t>s__CAG-349 sp001940895</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS849_20.fasta</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C37" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>s__CAG-349 sp001940895</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS849_21.fasta</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C38" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>s__CAG-349 sp001940895</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS849_23.fasta</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C39" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>s__CAG-349 sp001940895</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS849_28.fasta</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="C40" t="n">
-        <v>2.220446049250264e-14</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.9999999999999778</v>
-      </c>
-      <c r="E40" t="inlineStr">
         <is>
           <t>s__CAG-349 sp001940895</t>
         </is>
@@ -1367,7 +1283,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1573,17 +1489,17 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS578_1.fasta</t>
+          <t>label_UMGS578_12.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>5.351628860972291e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0.9999464837113903</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0.9999464837113903</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1594,17 +1510,17 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS578_15.fasta</t>
+          <t>label_UMGS578_13.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.0001056394175382724</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0.9998943605824617</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0.9998943605824617</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1615,17 +1531,17 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS578_19.fasta</t>
+          <t>label_UMGS578_17.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>3.65828963467818e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0.9999634171036532</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0.9999634171036532</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1636,17 +1552,17 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS578_23.fasta</t>
+          <t>label_UMGS578_18.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>6.106404516703634e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0.9999938935954833</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0.9999938935954833</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1657,17 +1573,17 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS578_25.fasta</t>
+          <t>label_UMGS578_3.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>7.18177420511168e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0.9999928182257949</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0.9999928182257949</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1678,17 +1594,17 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS578_30.fasta</t>
+          <t>label_UMGS578_33.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1.046641811019988e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0.9999895335818898</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0.9999895335818898</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1699,17 +1615,17 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS578_31.fasta</t>
+          <t>label_UMGS578_37.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.000291921816094276</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0.9997080781839057</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0.9997080781839057</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1720,17 +1636,17 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS578_4.fasta</t>
+          <t>label_UMGS578_40.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.0003597283315093236</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0.9996402716684907</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0.9996402716684907</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1741,17 +1657,17 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS578_42.fasta</t>
+          <t>label_UMGS578_44.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.0001463931618448377</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0.9998536068381552</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0.9998536068381552</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1762,7 +1678,7 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS578_43.fasta</t>
+          <t>label_UMGS578_0.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1783,7 +1699,7 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS578_45.fasta</t>
+          <t>label_UMGS578_14.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1804,17 +1720,17 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS578_12.fasta</t>
+          <t>label_UMGS578_21.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.351628860972291e-05</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9999464837113903</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999464837113903</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1825,17 +1741,17 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS578_13.fasta</t>
+          <t>label_UMGS578_22.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0001056394175382724</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9998943605824617</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9998943605824617</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1846,17 +1762,17 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS578_17.fasta</t>
+          <t>label_UMGS578_26.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3.65828963467818e-05</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9999634171036532</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999634171036532</v>
+        <v>1</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1867,17 +1783,17 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS578_18.fasta</t>
+          <t>label_UMGS578_39.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.106404516703634e-06</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9999938935954833</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999938935954833</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1888,17 +1804,17 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS578_3.fasta</t>
+          <t>label_UMGS578_7.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7.18177420511168e-06</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9999928182257949</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999928182257949</v>
+        <v>1</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1909,17 +1825,17 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS578_33.fasta</t>
+          <t>label_UMGS578_9.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.046641811019988e-05</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9999895335818898</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999895335818898</v>
+        <v>1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1930,17 +1846,17 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS578_37.fasta</t>
+          <t>label_UMGS578_10.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.000291921816094276</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9997080781839057</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9997080781839057</v>
+        <v>1</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1951,17 +1867,17 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS578_40.fasta</t>
+          <t>label_UMGS578_11.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.0003597283315093236</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9996402716684907</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9996402716684907</v>
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1972,17 +1888,17 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS578_44.fasta</t>
+          <t>label_UMGS578_2.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0001463931618448377</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9998536068381552</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9998536068381552</v>
+        <v>1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1993,7 +1909,7 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS578_0.fasta</t>
+          <t>label_UMGS578_24.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2014,7 +1930,7 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS578_14.fasta</t>
+          <t>label_UMGS578_27.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2035,7 +1951,7 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS578_21.fasta</t>
+          <t>label_UMGS578_29.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2056,7 +1972,7 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS578_22.fasta</t>
+          <t>label_UMGS578_34.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2077,7 +1993,7 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS578_26.fasta</t>
+          <t>label_UMGS578_35.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2098,7 +2014,7 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS578_39.fasta</t>
+          <t>label_UMGS578_36.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2119,7 +2035,7 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS578_7.fasta</t>
+          <t>label_UMGS578_5.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2140,7 +2056,7 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS578_9.fasta</t>
+          <t>label_UMGS578_16.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2161,7 +2077,7 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS578_10.fasta</t>
+          <t>label_UMGS578_20.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -2182,7 +2098,7 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS578_11.fasta</t>
+          <t>label_UMGS578_28.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -2203,7 +2119,7 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS578_2.fasta</t>
+          <t>label_UMGS578_32.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -2224,7 +2140,7 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS578_24.fasta</t>
+          <t>label_UMGS578_38.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2245,17 +2161,17 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS578_27.fasta</t>
+          <t>label_UMGS578_41.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>0.3968253999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>0.6031746</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0.6031746</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2266,7 +2182,7 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS578_29.fasta</t>
+          <t>label_UMGS578_6.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -2287,7 +2203,7 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS578_34.fasta</t>
+          <t>label_UMGS578_8.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -2300,237 +2216,6 @@
         <v>1</v>
       </c>
       <c r="E44" t="inlineStr">
-        <is>
-          <t>s__CAG-349 sp003539515</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS578_35.fasta</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>0</v>
-      </c>
-      <c r="C45" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>s__CAG-349 sp003539515</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS578_36.fasta</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>0</v>
-      </c>
-      <c r="C46" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>s__CAG-349 sp003539515</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS578_5.fasta</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>0</v>
-      </c>
-      <c r="C47" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>s__CAG-349 sp003539515</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS578_16.fasta</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>0</v>
-      </c>
-      <c r="C48" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>s__CAG-349 sp003539515</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS578_20.fasta</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>0</v>
-      </c>
-      <c r="C49" t="n">
-        <v>1</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>s__CAG-349 sp003539515</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS578_28.fasta</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>0</v>
-      </c>
-      <c r="C50" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>s__CAG-349 sp003539515</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS578_32.fasta</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" t="n">
-        <v>1</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>s__CAG-349 sp003539515</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS578_38.fasta</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>s__CAG-349 sp003539515</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS578_41.fasta</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0.3968253999999999</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.6031746</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.6031746</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>s__CAG-349 sp003539515</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS578_6.fasta</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>0</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>s__CAG-349 sp003539515</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS578_8.fasta</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>0</v>
-      </c>
-      <c r="C55" t="n">
-        <v>1</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" t="inlineStr">
         <is>
           <t>s__CAG-349 sp003539515</t>
         </is>
